--- a/Resultados/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/Resultados/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_36ha_100ha_14%_12m_0_TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="11_613B55CBA4F933C582100C8EEFBD5D9B9E9A2A19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CB11549-7A2A-4DFC-B9A1-D78737A79245}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="11_613B55CBA4F933C582100C8EEFBD5D9B9E9A2A19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A1A36F3-C9F1-4BCD-9868-F6A726B7D7B3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>eld_36ha_100ha_14%_12m_0_TSP\</t>
   </si>
 </sst>
 </file>
@@ -10499,13 +10502,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6E6EA8-1B5B-41B5-9620-7E20DEBEE824}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -10533,8 +10536,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -10574,7 +10580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -10605,7 +10611,7 @@
         <v>1.2948840000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -10636,7 +10642,7 @@
         <v>1.3875120000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -10667,7 +10673,7 @@
         <v>1.4443199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -10698,7 +10704,7 @@
         <v>1.4864760000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -10729,7 +10735,7 @@
         <v>1.5150239999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -10760,7 +10766,7 @@
         <v>1.5363</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -10791,7 +10797,7 @@
         <v>1.55142</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -10822,7 +10828,7 @@
         <v>1.5651359999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -10853,7 +10859,7 @@
         <v>1.5727319999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -10884,7 +10890,7 @@
         <v>1.5817679999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -10915,7 +10921,7 @@
         <v>1.5878159999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -10946,7 +10952,7 @@
         <v>1.5924599999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -10977,7 +10983,7 @@
         <v>1.5978239999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
